--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2748.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2748.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158656781622646</v>
+        <v>1.777225375175476</v>
       </c>
       <c r="B1">
-        <v>2.412598052101643</v>
+        <v>2.451827526092529</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.676681995391846</v>
       </c>
       <c r="D1">
-        <v>2.370742719055727</v>
+        <v>3.463078022003174</v>
       </c>
       <c r="E1">
-        <v>1.222714404035993</v>
+        <v>1.238998293876648</v>
       </c>
     </row>
   </sheetData>
